--- a/texas_president.xlsx
+++ b/texas_president.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27815"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natasha/Documents/Fall2018/Science_Of_Elections/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saptarshighose/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{040249EC-6173-C643-85FF-0C4EDAC46AC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16220" xr2:uid="{7337B02E-B65D-D845-AFF2-904C407F5230}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="President" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="274">
   <si>
     <t>count</t>
   </si>
@@ -835,13 +840,25 @@
   </si>
   <si>
     <t>ZAVALA</t>
+  </si>
+  <si>
+    <t>pro_gun</t>
+  </si>
+  <si>
+    <t>pro_choice</t>
+  </si>
+  <si>
+    <t>climate_pro</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1217,14 +1234,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C503D2-FFC4-664D-835F-D7A9C3329AFA}">
-  <dimension ref="A1:J255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A1:XFD5"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="14.33203125" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
@@ -1234,7 +1251,7 @@
     <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,8 +1282,17 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1297,8 +1323,17 @@
       <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1330,8 +1365,17 @@
       <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1363,8 +1407,17 @@
       <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1396,8 +1449,17 @@
       <c r="J5" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -1429,8 +1491,17 @@
       <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1462,8 +1533,17 @@
       <c r="J7" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1480,8 +1560,8 @@
       <c r="E8" s="1">
         <v>0.35051624086215993</v>
       </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>273</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1495,8 +1575,17 @@
       <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1528,8 +1617,17 @@
       <c r="J9" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1561,8 +1659,17 @@
       <c r="J10" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -1594,8 +1701,17 @@
       <c r="J11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
@@ -1627,8 +1743,17 @@
       <c r="J12" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
@@ -1660,8 +1785,17 @@
       <c r="J13" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
@@ -1693,8 +1827,17 @@
       <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
@@ -1726,8 +1869,17 @@
       <c r="J15" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1759,8 +1911,17 @@
       <c r="J16" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -1792,8 +1953,17 @@
       <c r="J17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
@@ -1825,8 +1995,17 @@
       <c r="J18" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -1858,8 +2037,17 @@
       <c r="J19" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>33</v>
       </c>
@@ -1891,8 +2079,17 @@
       <c r="J20" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -1924,8 +2121,17 @@
       <c r="J21" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
@@ -1957,8 +2163,17 @@
       <c r="J22" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>36</v>
       </c>
@@ -1990,8 +2205,17 @@
       <c r="J23" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -2023,8 +2247,17 @@
       <c r="J24" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>39</v>
       </c>
@@ -2056,8 +2289,17 @@
       <c r="J25" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>40</v>
       </c>
@@ -2089,8 +2331,17 @@
       <c r="J26" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
@@ -2122,8 +2373,17 @@
       <c r="J27" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>42</v>
       </c>
@@ -2155,8 +2415,17 @@
       <c r="J28" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -2188,8 +2457,17 @@
       <c r="J29" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -2221,8 +2499,17 @@
       <c r="J30" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>45</v>
       </c>
@@ -2254,8 +2541,17 @@
       <c r="J31" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>46</v>
       </c>
@@ -2287,8 +2583,17 @@
       <c r="J32" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>47</v>
       </c>
@@ -2320,8 +2625,17 @@
       <c r="J33" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>48</v>
       </c>
@@ -2353,8 +2667,17 @@
       <c r="J34" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>49</v>
       </c>
@@ -2386,8 +2709,17 @@
       <c r="J35" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>50</v>
       </c>
@@ -2419,8 +2751,17 @@
       <c r="J36" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>51</v>
       </c>
@@ -2452,8 +2793,17 @@
       <c r="J37" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>52</v>
       </c>
@@ -2485,8 +2835,17 @@
       <c r="J38" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>53</v>
       </c>
@@ -2518,8 +2877,17 @@
       <c r="J39" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>54</v>
       </c>
@@ -2551,8 +2919,17 @@
       <c r="J40" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>55</v>
       </c>
@@ -2584,8 +2961,17 @@
       <c r="J41" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
@@ -2617,8 +3003,17 @@
       <c r="J42" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
@@ -2650,8 +3045,17 @@
       <c r="J43" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>58</v>
       </c>
@@ -2683,8 +3087,17 @@
       <c r="J44" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>59</v>
       </c>
@@ -2716,8 +3129,17 @@
       <c r="J45" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>60</v>
       </c>
@@ -2749,8 +3171,17 @@
       <c r="J46" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -2782,8 +3213,17 @@
       <c r="J47" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>62</v>
       </c>
@@ -2815,8 +3255,17 @@
       <c r="J48" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>63</v>
       </c>
@@ -2848,8 +3297,17 @@
       <c r="J49" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -2881,8 +3339,17 @@
       <c r="J50" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>65</v>
       </c>
@@ -2914,8 +3381,17 @@
       <c r="J51" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>66</v>
       </c>
@@ -2947,8 +3423,17 @@
       <c r="J52" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>67</v>
       </c>
@@ -2980,8 +3465,17 @@
       <c r="J53" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>68</v>
       </c>
@@ -3013,8 +3507,17 @@
       <c r="J54" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>69</v>
       </c>
@@ -3046,8 +3549,17 @@
       <c r="J55" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>70</v>
       </c>
@@ -3079,8 +3591,17 @@
       <c r="J56" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>71</v>
       </c>
@@ -3112,8 +3633,17 @@
       <c r="J57" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>72</v>
       </c>
@@ -3145,8 +3675,17 @@
       <c r="J58" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>73</v>
       </c>
@@ -3178,8 +3717,17 @@
       <c r="J59" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>74</v>
       </c>
@@ -3211,8 +3759,17 @@
       <c r="J60" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>75</v>
       </c>
@@ -3244,8 +3801,17 @@
       <c r="J61" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>76</v>
       </c>
@@ -3277,8 +3843,17 @@
       <c r="J62" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>77</v>
       </c>
@@ -3310,8 +3885,17 @@
       <c r="J63" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>78</v>
       </c>
@@ -3343,8 +3927,17 @@
       <c r="J64" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>79</v>
       </c>
@@ -3376,8 +3969,17 @@
       <c r="J65" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>80</v>
       </c>
@@ -3409,8 +4011,17 @@
       <c r="J66" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>81</v>
       </c>
@@ -3442,8 +4053,17 @@
       <c r="J67" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>82</v>
       </c>
@@ -3475,8 +4095,17 @@
       <c r="J68" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>83</v>
       </c>
@@ -3508,8 +4137,17 @@
       <c r="J69" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>84</v>
       </c>
@@ -3541,8 +4179,17 @@
       <c r="J70" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>85</v>
       </c>
@@ -3574,8 +4221,17 @@
       <c r="J71" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>86</v>
       </c>
@@ -3607,8 +4263,17 @@
       <c r="J72" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>87</v>
       </c>
@@ -3640,8 +4305,17 @@
       <c r="J73" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>88</v>
       </c>
@@ -3673,8 +4347,17 @@
       <c r="J74" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>89</v>
       </c>
@@ -3706,8 +4389,17 @@
       <c r="J75" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>90</v>
       </c>
@@ -3739,8 +4431,17 @@
       <c r="J76" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>91</v>
       </c>
@@ -3772,8 +4473,17 @@
       <c r="J77" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>92</v>
       </c>
@@ -3805,8 +4515,17 @@
       <c r="J78" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>93</v>
       </c>
@@ -3838,8 +4557,17 @@
       <c r="J79" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>94</v>
       </c>
@@ -3871,8 +4599,17 @@
       <c r="J80" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>95</v>
       </c>
@@ -3904,8 +4641,17 @@
       <c r="J81" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>96</v>
       </c>
@@ -3937,8 +4683,17 @@
       <c r="J82" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>97</v>
       </c>
@@ -3970,8 +4725,17 @@
       <c r="J83" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
         <v>98</v>
       </c>
@@ -4003,8 +4767,17 @@
       <c r="J84" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>99</v>
       </c>
@@ -4036,8 +4809,17 @@
       <c r="J85" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>100</v>
       </c>
@@ -4069,8 +4851,17 @@
       <c r="J86" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>101</v>
       </c>
@@ -4102,8 +4893,17 @@
       <c r="J87" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>102</v>
       </c>
@@ -4135,8 +4935,17 @@
       <c r="J88" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>103</v>
       </c>
@@ -4168,8 +4977,17 @@
       <c r="J89" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>104</v>
       </c>
@@ -4201,8 +5019,17 @@
       <c r="J90" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>105</v>
       </c>
@@ -4234,8 +5061,17 @@
       <c r="J91" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>106</v>
       </c>
@@ -4267,8 +5103,17 @@
       <c r="J92" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>107</v>
       </c>
@@ -4300,8 +5145,17 @@
       <c r="J93" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>108</v>
       </c>
@@ -4333,8 +5187,17 @@
       <c r="J94" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>109</v>
       </c>
@@ -4366,8 +5229,17 @@
       <c r="J95" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>110</v>
       </c>
@@ -4399,8 +5271,17 @@
       <c r="J96" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>111</v>
       </c>
@@ -4432,8 +5313,17 @@
       <c r="J97" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>112</v>
       </c>
@@ -4465,8 +5355,17 @@
       <c r="J98" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>113</v>
       </c>
@@ -4498,8 +5397,17 @@
       <c r="J99" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>114</v>
       </c>
@@ -4531,8 +5439,17 @@
       <c r="J100" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>115</v>
       </c>
@@ -4564,8 +5481,17 @@
       <c r="J101" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>116</v>
       </c>
@@ -4597,8 +5523,17 @@
       <c r="J102" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>117</v>
       </c>
@@ -4630,8 +5565,17 @@
       <c r="J103" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>118</v>
       </c>
@@ -4663,8 +5607,17 @@
       <c r="J104" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>119</v>
       </c>
@@ -4696,8 +5649,17 @@
       <c r="J105" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>120</v>
       </c>
@@ -4729,8 +5691,17 @@
       <c r="J106" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>121</v>
       </c>
@@ -4762,8 +5733,17 @@
       <c r="J107" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>122</v>
       </c>
@@ -4795,8 +5775,17 @@
       <c r="J108" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>123</v>
       </c>
@@ -4828,8 +5817,17 @@
       <c r="J109" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>124</v>
       </c>
@@ -4861,8 +5859,17 @@
       <c r="J110" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>125</v>
       </c>
@@ -4894,8 +5901,17 @@
       <c r="J111" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>126</v>
       </c>
@@ -4927,8 +5943,17 @@
       <c r="J112" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>127</v>
       </c>
@@ -4960,8 +5985,17 @@
       <c r="J113" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>128</v>
       </c>
@@ -4993,8 +6027,17 @@
       <c r="J114" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>129</v>
       </c>
@@ -5026,8 +6069,17 @@
       <c r="J115" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>130</v>
       </c>
@@ -5059,8 +6111,17 @@
       <c r="J116" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>131</v>
       </c>
@@ -5092,8 +6153,17 @@
       <c r="J117" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>132</v>
       </c>
@@ -5125,8 +6195,17 @@
       <c r="J118" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>133</v>
       </c>
@@ -5158,8 +6237,17 @@
       <c r="J119" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>134</v>
       </c>
@@ -5191,8 +6279,17 @@
       <c r="J120" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
         <v>135</v>
       </c>
@@ -5224,8 +6321,17 @@
       <c r="J121" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>136</v>
       </c>
@@ -5257,8 +6363,17 @@
       <c r="J122" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>137</v>
       </c>
@@ -5290,8 +6405,17 @@
       <c r="J123" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>138</v>
       </c>
@@ -5323,8 +6447,17 @@
       <c r="J124" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>139</v>
       </c>
@@ -5356,8 +6489,17 @@
       <c r="J125" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>140</v>
       </c>
@@ -5389,8 +6531,17 @@
       <c r="J126" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>141</v>
       </c>
@@ -5422,8 +6573,17 @@
       <c r="J127" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>142</v>
       </c>
@@ -5455,8 +6615,17 @@
       <c r="J128" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>143</v>
       </c>
@@ -5488,8 +6657,17 @@
       <c r="J129" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>144</v>
       </c>
@@ -5521,8 +6699,17 @@
       <c r="J130" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>145</v>
       </c>
@@ -5554,8 +6741,17 @@
       <c r="J131" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>146</v>
       </c>
@@ -5587,8 +6783,17 @@
       <c r="J132" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>147</v>
       </c>
@@ -5620,8 +6825,17 @@
       <c r="J133" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>148</v>
       </c>
@@ -5653,8 +6867,17 @@
       <c r="J134" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>149</v>
       </c>
@@ -5686,8 +6909,17 @@
       <c r="J135" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>150</v>
       </c>
@@ -5719,8 +6951,17 @@
       <c r="J136" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>151</v>
       </c>
@@ -5752,8 +6993,17 @@
       <c r="J137" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>152</v>
       </c>
@@ -5785,8 +7035,17 @@
       <c r="J138" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>153</v>
       </c>
@@ -5818,8 +7077,17 @@
       <c r="J139" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>154</v>
       </c>
@@ -5851,8 +7119,17 @@
       <c r="J140" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>155</v>
       </c>
@@ -5884,8 +7161,17 @@
       <c r="J141" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>156</v>
       </c>
@@ -5917,8 +7203,17 @@
       <c r="J142" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>157</v>
       </c>
@@ -5950,8 +7245,17 @@
       <c r="J143" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>158</v>
       </c>
@@ -5983,8 +7287,17 @@
       <c r="J144" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>159</v>
       </c>
@@ -6016,8 +7329,17 @@
       <c r="J145" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>160</v>
       </c>
@@ -6049,8 +7371,17 @@
       <c r="J146" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>161</v>
       </c>
@@ -6082,8 +7413,17 @@
       <c r="J147" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>162</v>
       </c>
@@ -6115,8 +7455,17 @@
       <c r="J148" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>163</v>
       </c>
@@ -6148,8 +7497,17 @@
       <c r="J149" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>164</v>
       </c>
@@ -6181,8 +7539,17 @@
       <c r="J150" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>165</v>
       </c>
@@ -6214,8 +7581,17 @@
       <c r="J151" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>166</v>
       </c>
@@ -6247,8 +7623,17 @@
       <c r="J152" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>167</v>
       </c>
@@ -6280,8 +7665,17 @@
       <c r="J153" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>168</v>
       </c>
@@ -6313,8 +7707,17 @@
       <c r="J154" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>169</v>
       </c>
@@ -6346,8 +7749,17 @@
       <c r="J155" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>170</v>
       </c>
@@ -6379,8 +7791,17 @@
       <c r="J156" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>171</v>
       </c>
@@ -6412,8 +7833,17 @@
       <c r="J157" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>172</v>
       </c>
@@ -6445,8 +7875,17 @@
       <c r="J158" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>173</v>
       </c>
@@ -6478,8 +7917,17 @@
       <c r="J159" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>174</v>
       </c>
@@ -6511,8 +7959,17 @@
       <c r="J160" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>175</v>
       </c>
@@ -6544,8 +8001,17 @@
       <c r="J161" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>176</v>
       </c>
@@ -6577,8 +8043,17 @@
       <c r="J162" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>177</v>
       </c>
@@ -6610,8 +8085,17 @@
       <c r="J163" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>178</v>
       </c>
@@ -6643,8 +8127,17 @@
       <c r="J164" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>179</v>
       </c>
@@ -6676,8 +8169,17 @@
       <c r="J165" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>180</v>
       </c>
@@ -6709,8 +8211,17 @@
       <c r="J166" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>181</v>
       </c>
@@ -6742,8 +8253,17 @@
       <c r="J167" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>182</v>
       </c>
@@ -6775,8 +8295,17 @@
       <c r="J168" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>183</v>
       </c>
@@ -6808,8 +8337,17 @@
       <c r="J169" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>184</v>
       </c>
@@ -6841,8 +8379,17 @@
       <c r="J170" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>185</v>
       </c>
@@ -6874,8 +8421,17 @@
       <c r="J171" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>186</v>
       </c>
@@ -6907,8 +8463,17 @@
       <c r="J172" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>187</v>
       </c>
@@ -6940,8 +8505,17 @@
       <c r="J173" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>188</v>
       </c>
@@ -6973,8 +8547,17 @@
       <c r="J174" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>189</v>
       </c>
@@ -7006,8 +8589,17 @@
       <c r="J175" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>190</v>
       </c>
@@ -7039,8 +8631,17 @@
       <c r="J176" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>191</v>
       </c>
@@ -7072,8 +8673,17 @@
       <c r="J177" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>192</v>
       </c>
@@ -7105,8 +8715,17 @@
       <c r="J178" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
         <v>193</v>
       </c>
@@ -7138,8 +8757,17 @@
       <c r="J179" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>194</v>
       </c>
@@ -7171,8 +8799,17 @@
       <c r="J180" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>195</v>
       </c>
@@ -7204,8 +8841,17 @@
       <c r="J181" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>196</v>
       </c>
@@ -7237,8 +8883,17 @@
       <c r="J182" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>197</v>
       </c>
@@ -7270,8 +8925,17 @@
       <c r="J183" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>198</v>
       </c>
@@ -7303,8 +8967,17 @@
       <c r="J184" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>199</v>
       </c>
@@ -7336,8 +9009,17 @@
       <c r="J185" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>200</v>
       </c>
@@ -7369,8 +9051,17 @@
       <c r="J186" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>201</v>
       </c>
@@ -7402,8 +9093,17 @@
       <c r="J187" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>202</v>
       </c>
@@ -7435,8 +9135,17 @@
       <c r="J188" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>203</v>
       </c>
@@ -7468,8 +9177,17 @@
       <c r="J189" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>204</v>
       </c>
@@ -7501,8 +9219,17 @@
       <c r="J190" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>205</v>
       </c>
@@ -7534,8 +9261,17 @@
       <c r="J191" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>206</v>
       </c>
@@ -7567,8 +9303,17 @@
       <c r="J192" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>207</v>
       </c>
@@ -7600,8 +9345,17 @@
       <c r="J193" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>208</v>
       </c>
@@ -7633,8 +9387,17 @@
       <c r="J194" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>209</v>
       </c>
@@ -7666,8 +9429,17 @@
       <c r="J195" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>210</v>
       </c>
@@ -7699,8 +9471,17 @@
       <c r="J196" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>211</v>
       </c>
@@ -7732,8 +9513,17 @@
       <c r="J197" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>212</v>
       </c>
@@ -7765,8 +9555,17 @@
       <c r="J198" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>213</v>
       </c>
@@ -7798,8 +9597,17 @@
       <c r="J199" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>214</v>
       </c>
@@ -7831,8 +9639,17 @@
       <c r="J200" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
         <v>215</v>
       </c>
@@ -7864,8 +9681,17 @@
       <c r="J201" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>216</v>
       </c>
@@ -7897,8 +9723,17 @@
       <c r="J202" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>217</v>
       </c>
@@ -7930,8 +9765,17 @@
       <c r="J203" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>218</v>
       </c>
@@ -7963,8 +9807,17 @@
       <c r="J204" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>219</v>
       </c>
@@ -7996,8 +9849,17 @@
       <c r="J205" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>220</v>
       </c>
@@ -8029,8 +9891,17 @@
       <c r="J206" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>221</v>
       </c>
@@ -8062,8 +9933,17 @@
       <c r="J207" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>222</v>
       </c>
@@ -8095,8 +9975,17 @@
       <c r="J208" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>223</v>
       </c>
@@ -8128,8 +10017,17 @@
       <c r="J209" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>224</v>
       </c>
@@ -8161,8 +10059,17 @@
       <c r="J210" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>225</v>
       </c>
@@ -8194,8 +10101,17 @@
       <c r="J211" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>226</v>
       </c>
@@ -8227,8 +10143,17 @@
       <c r="J212" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
         <v>227</v>
       </c>
@@ -8260,8 +10185,17 @@
       <c r="J213" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>228</v>
       </c>
@@ -8293,8 +10227,17 @@
       <c r="J214" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+      <c r="M214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>229</v>
       </c>
@@ -8326,8 +10269,17 @@
       <c r="J215" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
         <v>230</v>
       </c>
@@ -8359,8 +10311,17 @@
       <c r="J216" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>1</v>
+      </c>
+      <c r="M216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>231</v>
       </c>
@@ -8392,8 +10353,17 @@
       <c r="J217" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
         <v>232</v>
       </c>
@@ -8425,8 +10395,17 @@
       <c r="J218" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
         <v>233</v>
       </c>
@@ -8458,8 +10437,17 @@
       <c r="J219" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>1</v>
+      </c>
+      <c r="M219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
         <v>234</v>
       </c>
@@ -8491,8 +10479,17 @@
       <c r="J220" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
         <v>235</v>
       </c>
@@ -8524,8 +10521,17 @@
       <c r="J221" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>1</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
         <v>236</v>
       </c>
@@ -8557,8 +10563,17 @@
       <c r="J222" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
         <v>237</v>
       </c>
@@ -8590,8 +10605,17 @@
       <c r="J223" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
         <v>238</v>
       </c>
@@ -8623,8 +10647,17 @@
       <c r="J224" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
         <v>239</v>
       </c>
@@ -8656,8 +10689,17 @@
       <c r="J225" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>1</v>
+      </c>
+      <c r="M225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
         <v>240</v>
       </c>
@@ -8689,8 +10731,17 @@
       <c r="J226" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
         <v>241</v>
       </c>
@@ -8722,8 +10773,17 @@
       <c r="J227" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
         <v>242</v>
       </c>
@@ -8755,8 +10815,17 @@
       <c r="J228" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>1</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
         <v>243</v>
       </c>
@@ -8788,8 +10857,17 @@
       <c r="J229" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>1</v>
+      </c>
+      <c r="M229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
         <v>244</v>
       </c>
@@ -8821,8 +10899,17 @@
       <c r="J230" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
         <v>245</v>
       </c>
@@ -8854,8 +10941,17 @@
       <c r="J231" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>1</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
         <v>246</v>
       </c>
@@ -8887,8 +10983,17 @@
       <c r="J232" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
         <v>247</v>
       </c>
@@ -8920,8 +11025,17 @@
       <c r="J233" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>1</v>
+      </c>
+      <c r="M233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
         <v>248</v>
       </c>
@@ -8953,8 +11067,17 @@
       <c r="J234" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
         <v>249</v>
       </c>
@@ -8986,8 +11109,17 @@
       <c r="J235" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>1</v>
+      </c>
+      <c r="M235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="5" t="s">
         <v>250</v>
       </c>
@@ -9019,8 +11151,17 @@
       <c r="J236" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>1</v>
+      </c>
+      <c r="M236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="5" t="s">
         <v>251</v>
       </c>
@@ -9052,8 +11193,17 @@
       <c r="J237" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>1</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="5" t="s">
         <v>252</v>
       </c>
@@ -9085,8 +11235,17 @@
       <c r="J238" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>1</v>
+      </c>
+      <c r="M238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="5" t="s">
         <v>253</v>
       </c>
@@ -9118,8 +11277,17 @@
       <c r="J239" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="5" t="s">
         <v>254</v>
       </c>
@@ -9151,8 +11319,17 @@
       <c r="J240" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>1</v>
+      </c>
+      <c r="M240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>255</v>
       </c>
@@ -9184,8 +11361,17 @@
       <c r="J241" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>1</v>
+      </c>
+      <c r="M241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="5" t="s">
         <v>256</v>
       </c>
@@ -9217,8 +11403,17 @@
       <c r="J242" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>1</v>
+      </c>
+      <c r="M242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
         <v>257</v>
       </c>
@@ -9250,8 +11445,17 @@
       <c r="J243" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
         <v>258</v>
       </c>
@@ -9283,8 +11487,17 @@
       <c r="J244" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>1</v>
+      </c>
+      <c r="M244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
         <v>259</v>
       </c>
@@ -9316,8 +11529,17 @@
       <c r="J245" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>1</v>
+      </c>
+      <c r="M245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
         <v>260</v>
       </c>
@@ -9349,8 +11571,17 @@
       <c r="J246" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>1</v>
+      </c>
+      <c r="M246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
         <v>261</v>
       </c>
@@ -9382,8 +11613,17 @@
       <c r="J247" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>1</v>
+      </c>
+      <c r="M247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
         <v>262</v>
       </c>
@@ -9415,8 +11655,17 @@
       <c r="J248" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>1</v>
+      </c>
+      <c r="M248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
         <v>263</v>
       </c>
@@ -9448,8 +11697,17 @@
       <c r="J249" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>1</v>
+      </c>
+      <c r="M249">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
         <v>264</v>
       </c>
@@ -9481,8 +11739,17 @@
       <c r="J250" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>1</v>
+      </c>
+      <c r="M250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
         <v>265</v>
       </c>
@@ -9514,8 +11781,17 @@
       <c r="J251" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>1</v>
+      </c>
+      <c r="M251">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
         <v>266</v>
       </c>
@@ -9547,8 +11823,17 @@
       <c r="J252" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>1</v>
+      </c>
+      <c r="M252">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
         <v>267</v>
       </c>
@@ -9580,8 +11865,17 @@
       <c r="J253" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>1</v>
+      </c>
+      <c r="M253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
         <v>268</v>
       </c>
@@ -9613,8 +11907,17 @@
       <c r="J254" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>1</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
         <v>269</v>
       </c>
@@ -9645,6 +11948,15 @@
       </c>
       <c r="J255" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>1</v>
+      </c>
+      <c r="M255">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
